--- a/metadata/maldi/todo/Vanderbilt TMC (MALDI).xlsx
+++ b/metadata/maldi/todo/Vanderbilt TMC (MALDI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$225</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$159</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$381</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$119</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,20 +431,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>cIMS</t>
+          <t>Negative ion mode</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Electrospray deposition</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
-        <is>
-          <t>MS1</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -453,20 +448,15 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>TWIMS</t>
+          <t>Positive ion mode</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Not applicable</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>MS3</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -475,63 +465,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DTIMS</t>
+          <t>Negative and positive ion mode</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sublimation</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SLIM</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Robotic spotting</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>TIMS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Robotic spraying</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>minute</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>FAIMS</t>
         </is>
       </c>
     </row>
@@ -546,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E225"/>
+  <dimension ref="A1:E159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -589,10 +547,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
@@ -608,12 +570,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -626,23 +588,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM229.MHGL.765</t>
+          <t>HBM245.BVDK.888</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM229.MHGL.765</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
         </is>
       </c>
     </row>
@@ -654,10 +616,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
@@ -668,30 +634,30 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM245.BVDK.888</t>
+          <t>HBM252.SRFF.799</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM245.BVDK.888</t>
+          <t>HBM252.SRFF.799</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -707,56 +673,60 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM252.SRFF.799</t>
+          <t>HBM253.WVWH.754</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Negative Ion Mode</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM253.WVWH.754</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM252.SRFF.799</t>
+          <t>HBM254.BWKF.959</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM252.SRFF.799</t>
+          <t>HBM254.BWKF.959</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -772,79 +742,83 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM253.WVWH.754</t>
+          <t>HBM265.RKZN.565</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM253.WVWH.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM254.BWKF.959</t>
+          <t>HBM265.RKZN.565</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM254.BWKF.959</t>
+          <t>HBM279.RHQH.884</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM254.BWKF.959</t>
+          <t>HBM279.RHQH.884</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -860,56 +834,60 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM265.RKZN.565</t>
+          <t>HBM286.FJBP.622</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Positive Ion Mode</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM286.FJBP.622</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM265.RKZN.565</t>
+          <t>HBM286.ZZNV.536</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM265.RKZN.565</t>
+          <t>HBM286.ZZNV.536</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -925,255 +903,267 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM279.RHQH.884</t>
+          <t>HBM295.NGXZ.259</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Positive Ion Mode</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM295.NGXZ.259</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM279.RHQH.884</t>
+          <t>HBM297.VSWF.562</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM297.VSWF.562</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM279.RHQH.884</t>
+          <t>HBM337.XRWN.985</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM286.FJBP.622</t>
+          <t>HBM337.XRWN.985</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.FJBP.622</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM286.ZZNV.536</t>
+          <t>HBM348.NCLT.522</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM286.ZZNV.536</t>
+          <t>HBM348.NCLT.522</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM286.ZZNV.536</t>
+          <t>HBM349.DTWT.383</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM295.NGXZ.259</t>
+          <t>HBM349.DTWT.383</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.NGXZ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM297.VSWF.562</t>
+          <t>HBM377.MFPF.328</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.VSWF.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM337.XRWN.985</t>
+          <t>HBM377.MFPF.328</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM337.XRWN.985</t>
+          <t>HBM393.LXBW.274</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM337.XRWN.985</t>
+          <t>HBM393.LXBW.274</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1189,316 +1179,336 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM348.NCLT.522</t>
+          <t>HBM393.RNFV.949</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM348.NCLT.522</t>
+          <t>HBM393.RNFV.949</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM348.NCLT.522</t>
+          <t>HBM394.SCHF.437</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM394.SCHF.437</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM349.DTWT.383</t>
+          <t>HBM437.BGCD.226</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM349.DTWT.383</t>
+          <t>HBM437.BGCD.226</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM349.DTWT.383</t>
+          <t>HBM437.JJKP.885</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM377.MFPF.328</t>
+          <t>HBM437.JJKP.885</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM377.MFPF.328</t>
+          <t>HBM437.KLJN.636</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.KLJN.636</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM377.MFPF.328</t>
+          <t>HBM446.GCXM.753</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM446.GCXM.753</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM393.LXBW.274</t>
+          <t>HBM447.SQFP.455</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM393.LXBW.274</t>
+          <t>HBM447.SQFP.455</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM393.LXBW.274</t>
+          <t>HBM453.RTXK.849</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM393.RNFV.949</t>
+          <t>HBM453.RTXK.849</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM393.RNFV.949</t>
+          <t>HBM459.PHNF.976</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM393.RNFV.949</t>
+          <t>HBM459.PHNF.976</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1514,79 +1524,83 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM394.SCHF.437</t>
+          <t>HBM472.NWBK.884</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM394.SCHF.437</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM437.BGCD.226</t>
+          <t>HBM472.NWBK.884</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM437.BGCD.226</t>
+          <t>HBM477.FNGG.257</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM437.BGCD.226</t>
+          <t>HBM477.FNGG.257</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1602,167 +1616,175 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM437.JJKP.885</t>
+          <t>HBM479.CXQD.522</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM437.JJKP.885</t>
+          <t>HBM479.CXQD.522</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM437.JJKP.885</t>
+          <t>HBM488.HRWV.754</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM437.KLJN.636</t>
+          <t>HBM488.HRWV.754</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.KLJN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM446.GCXM.753</t>
+          <t>HBM493.VRQM.643</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.GCXM.753</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM447.SQFP.455</t>
+          <t>HBM493.VRQM.643</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM447.SQFP.455</t>
+          <t>HBM494.CRGT.577</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM447.SQFP.455</t>
+          <t>HBM494.CRGT.577</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1778,56 +1800,60 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM453.RTXK.849</t>
+          <t>HBM525.DLPN.575</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Positive Ion Mode</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM525.DLPN.575</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM453.RTXK.849</t>
+          <t>HBM533.FRHN.665</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM453.RTXK.849</t>
+          <t>HBM533.FRHN.665</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1843,186 +1869,198 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM459.PHNF.976</t>
+          <t>HBM543.RWZD.568</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM459.PHNF.976</t>
+          <t>HBM543.RWZD.568</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM459.PHNF.976</t>
+          <t>HBM544.SCBX.327</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM544.SCBX.327</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM472.NWBK.884</t>
+          <t>HBM544.VSBJ.293</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM472.NWBK.884</t>
+          <t>HBM544.VSBJ.293</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM472.NWBK.884</t>
+          <t>HBM545.ZDPS.746</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM477.FNGG.257</t>
+          <t>HBM545.ZDPS.746</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM477.FNGG.257</t>
+          <t>HBM554.PGRJ.942</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>HBM477.FNGG.257</t>
+          <t>HBM554.PGRJ.942</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2038,121 +2076,129 @@
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HBM479.CXQD.522</t>
+          <t>HBM556.CGCS.879</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>HBM479.CXQD.522</t>
+          <t>HBM556.CGCS.879</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>HBM479.CXQD.522</t>
+          <t>HBM556.VXGQ.987</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.VXGQ.987</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>HBM488.HRWV.754</t>
+          <t>HBM565.CBJS.354</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Positive Ion Mode</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM565.CBJS.354</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>HBM488.HRWV.754</t>
+          <t>HBM568.VXSK.299</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>HBM488.HRWV.754</t>
+          <t>HBM568.VXSK.299</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2168,492 +2214,520 @@
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>HBM493.VRQM.643</t>
+          <t>HBM573.JRSG.822</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>HBM493.VRQM.643</t>
+          <t>HBM573.JRSG.822</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>HBM493.VRQM.643</t>
+          <t>HBM578.WFKM.657</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>HBM494.CRGT.577</t>
+          <t>HBM578.WFKM.657</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>HBM494.CRGT.577</t>
+          <t>HBM584.QJGL.379</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM584.QJGL.379</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>HBM494.CRGT.577</t>
+          <t>HBM594.SMLK.545</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM594.SMLK.545</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>HBM525.DLPN.575</t>
+          <t>HBM632.SGXL.444</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.DLPN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>HBM533.FRHN.665</t>
+          <t>HBM632.SGXL.444</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>HBM533.FRHN.665</t>
+          <t>HBM639.BNFL.487</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM639.BNFL.487</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>HBM533.FRHN.665</t>
+          <t>HBM644.HLRW.739</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>HBM543.RWZD.568</t>
+          <t>HBM644.HLRW.739</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>HBM543.RWZD.568</t>
+          <t>HBM645.ZQSN.258</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM645.ZQSN.258</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>HBM543.RWZD.568</t>
+          <t>HBM652.VGTN.936</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM652.VGTN.936</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>HBM544.SCBX.327</t>
+          <t>HBM662.MPBS.458</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.SCBX.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>HBM544.VSBJ.293</t>
+          <t>HBM662.MPBS.458</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>HBM544.VSBJ.293</t>
+          <t>HBM738.KFNZ.872</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM738.KFNZ.872</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>HBM544.VSBJ.293</t>
+          <t>HBM739.JKQC.464</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM739.JKQC.464</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>HBM545.ZDPS.746</t>
+          <t>HBM747.PXSM.373</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>HBM545.ZDPS.746</t>
+          <t>HBM747.PXSM.373</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>HBM545.ZDPS.746</t>
+          <t>HBM749.MMKH.463</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>HBM554.PGRJ.942</t>
+          <t>HBM749.MMKH.463</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>HBM554.PGRJ.942</t>
+          <t>HBM758.SQVJ.597</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>HBM554.PGRJ.942</t>
+          <t>HBM758.SQVJ.597</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -2669,232 +2743,244 @@
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>HBM556.CGCS.879</t>
+          <t>HBM759.QJTL.573</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>HBM556.CGCS.879</t>
+          <t>HBM759.QJTL.573</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>HBM556.CGCS.879</t>
+          <t>HBM768.DPRS.958</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM768.DPRS.958</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>HBM556.VXGQ.987</t>
+          <t>HBM773.MNRH.264</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.VXGQ.987</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>HBM565.CBJS.354</t>
+          <t>HBM773.MNRH.264</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.CBJS.354</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>HBM568.VXSK.299</t>
+          <t>HBM773.XBNC.394</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>HBM568.VXSK.299</t>
+          <t>HBM773.XBNC.394</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>HBM568.VXSK.299</t>
+          <t>HBM777.STQB.672</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>HBM573.JRSG.822</t>
+          <t>HBM777.STQB.672</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>HBM573.JRSG.822</t>
+          <t>HBM782.SCDT.743</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>HBM573.JRSG.822</t>
+          <t>HBM782.SCDT.743</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -2910,167 +2996,175 @@
       <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>HBM578.WFKM.657</t>
+          <t>HBM784.HQQK.452</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>HBM578.WFKM.657</t>
+          <t>HBM784.HQQK.452</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>HBM578.WFKM.657</t>
+          <t>HBM787.DXFR.498</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>HBM584.QJGL.379</t>
+          <t>HBM787.DXFR.498</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.QJGL.379</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>HBM594.SMLK.545</t>
+          <t>HBM793.CTLW.723</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SMLK.545</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>HBM632.SGXL.444</t>
+          <t>HBM793.CTLW.723</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>HBM632.SGXL.444</t>
+          <t>HBM794.JRXQ.455</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>HBM632.SGXL.444</t>
+          <t>HBM794.JRXQ.455</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -3086,79 +3180,83 @@
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>HBM639.BNFL.487</t>
+          <t>HBM799.DZFZ.778</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.BNFL.487</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>HBM644.HLRW.739</t>
+          <t>HBM799.DZFZ.778</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>HBM644.HLRW.739</t>
+          <t>HBM826.XDBN.955</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>HBM644.HLRW.739</t>
+          <t>HBM826.XDBN.955</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -3174,102 +3272,106 @@
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>HBM645.ZQSN.258</t>
+          <t>HBM832.RVND.293</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM645.ZQSN.258</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM832.RVND.293</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>HBM652.VGTN.936</t>
+          <t>HBM846.HKTX.428</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM652.VGTN.936</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM846.HKTX.428</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>HBM662.MPBS.458</t>
+          <t>HBM853.XDCQ.953</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Negative Ion Mode</t>
+        </is>
+      </c>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM853.XDCQ.953</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>HBM662.MPBS.458</t>
+          <t>HBM856.CDPK.464</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>HBM662.MPBS.458</t>
+          <t>HBM856.CDPK.464</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -3285,297 +3387,313 @@
       <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>HBM738.KFNZ.872</t>
+          <t>HBM856.FWBK.447</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.KFNZ.872</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>HBM739.JKQC.464</t>
+          <t>HBM856.FWBK.447</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.JKQC.464</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>HBM747.PXSM.373</t>
+          <t>HBM856.RFNW.734</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>HBM747.PXSM.373</t>
+          <t>HBM856.RFNW.734</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>HBM747.PXSM.373</t>
+          <t>HBM857.CTKH.498</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>Negative Ion Mode</t>
         </is>
       </c>
       <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM857.CTKH.498</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>HBM749.MMKH.463</t>
+          <t>HBM862.DKNM.597</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>HBM749.MMKH.463</t>
+          <t>HBM862.DKNM.597</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>HBM749.MMKH.463</t>
+          <t>HBM869.RKXX.583</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>HBM758.SQVJ.597</t>
+          <t>HBM869.RKXX.583</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>HBM758.SQVJ.597</t>
+          <t>HBM877.RCLN.985</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM877.RCLN.985</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>HBM758.SQVJ.597</t>
+          <t>HBM884.RCMT.655</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>HBM759.QJTL.573</t>
+          <t>HBM884.RCMT.655</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>HBM759.QJTL.573</t>
+          <t>HBM886.MPTX.392</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>HBM759.QJTL.573</t>
+          <t>HBM886.MPTX.392</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -3591,144 +3709,152 @@
       <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>HBM768.DPRS.958</t>
+          <t>HBM889.NSRP.924</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Sprayed</t>
+          <t>Positive Ion Mode</t>
         </is>
       </c>
       <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM768.DPRS.958</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM889.NSRP.924</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>HBM773.MNRH.264</t>
+          <t>HBM925.WHKF.243</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>HBM773.MNRH.264</t>
+          <t>HBM925.WHKF.243</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>HBM773.MNRH.264</t>
+          <t>HBM928.HZCW.757</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>HBM773.XBNC.394</t>
+          <t>HBM928.HZCW.757</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>HBM773.XBNC.394</t>
+          <t>HBM938.XFGN.695</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>HBM773.XBNC.394</t>
+          <t>HBM938.XFGN.695</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -3744,121 +3870,129 @@
       <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>HBM777.STQB.672</t>
+          <t>HBM946.ZHFC.683</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>negative ion mode</t>
+        </is>
+      </c>
       <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>HBM777.STQB.672</t>
+          <t>HBM946.ZHFC.683</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>HBM777.STQB.672</t>
+          <t>HBM959.MGHL.844</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>HBM782.SCDT.743</t>
+          <t>HBM959.MGHL.844</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>HBM782.SCDT.743</t>
+          <t>HBM962.PZXB.965</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>HBM782.SCDT.743</t>
+          <t>HBM962.PZXB.965</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -3874,121 +4008,129 @@
       <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>HBM784.HQQK.452</t>
+          <t>HBM963.DBXF.369</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>positive ion mode</t>
+        </is>
+      </c>
       <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>HBM784.HQQK.452</t>
+          <t>HBM963.DBXF.369</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>HBM784.HQQK.452</t>
+          <t>HBM966.RXFK.673</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ms_scan_mode</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>MS</t>
+          <t>positive ion mode</t>
         </is>
       </c>
       <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>HBM787.DXFR.498</t>
+          <t>HBM966.RXFK.673</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr"/>
+          <t>ms_scan_mode</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>MS</t>
+        </is>
+      </c>
       <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>HBM787.DXFR.498</t>
+          <t>HBM975.BJRS.622</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>matrix_deposition_method</t>
+          <t>mass_analysis_polarity</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Sprayed matrix</t>
+          <t>negative ion mode</t>
         </is>
       </c>
       <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>HBM787.DXFR.498</t>
+          <t>HBM975.BJRS.622</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -4004,1482 +4146,41 @@
       <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>HBM793.CTLW.723</t>
+          <t>HBM983.DBTL.373</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr"/>
+          <t>mass_analysis_polarity</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Positive Ion Mode</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>HBM793.CTLW.723</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
-        </is>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>HBM793.CTLW.723</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
-        </is>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>HBM794.JRXQ.455</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>HBM794.JRXQ.455</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>HBM794.JRXQ.455</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>HBM799.DZFZ.778</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr"/>
-      <c r="D165" t="inlineStr"/>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
-        </is>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>HBM799.DZFZ.778</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr"/>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
-        </is>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>HBM799.DZFZ.778</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
-        </is>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>HBM826.XDBN.955</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr"/>
-      <c r="D168" t="inlineStr"/>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
-        </is>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>HBM826.XDBN.955</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
-        </is>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>HBM826.XDBN.955</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
-        </is>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t>HBM832.RVND.293</t>
-        </is>
-      </c>
-      <c r="B171" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C171" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.RVND.293</t>
-        </is>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t>HBM846.HKTX.428</t>
-        </is>
-      </c>
-      <c r="B172" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C172" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.HKTX.428</t>
-        </is>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t>HBM853.XDCQ.953</t>
-        </is>
-      </c>
-      <c r="B173" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C173" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM853.XDCQ.953</t>
-        </is>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t>HBM856.CDPK.464</t>
-        </is>
-      </c>
-      <c r="B174" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C174" t="inlineStr"/>
-      <c r="D174" t="inlineStr"/>
-      <c r="E174" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t>HBM856.CDPK.464</t>
-        </is>
-      </c>
-      <c r="B175" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C175" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D175" t="inlineStr"/>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t>HBM856.CDPK.464</t>
-        </is>
-      </c>
-      <c r="B176" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C176" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D176" t="inlineStr"/>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="inlineStr">
-        <is>
-          <t>HBM856.FWBK.447</t>
-        </is>
-      </c>
-      <c r="B177" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C177" t="inlineStr"/>
-      <c r="D177" t="inlineStr"/>
-      <c r="E177" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t>HBM856.FWBK.447</t>
-        </is>
-      </c>
-      <c r="B178" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C178" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D178" t="inlineStr"/>
-      <c r="E178" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="inlineStr">
-        <is>
-          <t>HBM856.FWBK.447</t>
-        </is>
-      </c>
-      <c r="B179" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C179" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D179" t="inlineStr"/>
-      <c r="E179" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t>HBM856.RFNW.734</t>
-        </is>
-      </c>
-      <c r="B180" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C180" t="inlineStr"/>
-      <c r="D180" t="inlineStr"/>
-      <c r="E180" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t>HBM856.RFNW.734</t>
-        </is>
-      </c>
-      <c r="B181" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C181" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D181" t="inlineStr"/>
-      <c r="E181" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t>HBM856.RFNW.734</t>
-        </is>
-      </c>
-      <c r="B182" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C182" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D182" t="inlineStr"/>
-      <c r="E182" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="inlineStr">
-        <is>
-          <t>HBM857.CTKH.498</t>
-        </is>
-      </c>
-      <c r="B183" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C183" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D183" t="inlineStr"/>
-      <c r="E183" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.CTKH.498</t>
-        </is>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t>HBM862.DKNM.597</t>
-        </is>
-      </c>
-      <c r="B184" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C184" t="inlineStr"/>
-      <c r="D184" t="inlineStr"/>
-      <c r="E184" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t>HBM862.DKNM.597</t>
-        </is>
-      </c>
-      <c r="B185" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
-      <c r="E185" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t>HBM862.DKNM.597</t>
-        </is>
-      </c>
-      <c r="B186" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C186" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D186" t="inlineStr"/>
-      <c r="E186" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t>HBM869.RKXX.583</t>
-        </is>
-      </c>
-      <c r="B187" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C187" t="inlineStr"/>
-      <c r="D187" t="inlineStr"/>
-      <c r="E187" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="inlineStr">
-        <is>
-          <t>HBM869.RKXX.583</t>
-        </is>
-      </c>
-      <c r="B188" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C188" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D188" t="inlineStr"/>
-      <c r="E188" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t>HBM869.RKXX.583</t>
-        </is>
-      </c>
-      <c r="B189" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C189" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D189" t="inlineStr"/>
-      <c r="E189" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t>HBM877.RCLN.985</t>
-        </is>
-      </c>
-      <c r="B190" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C190" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D190" t="inlineStr"/>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.RCLN.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t>HBM884.RCMT.655</t>
-        </is>
-      </c>
-      <c r="B191" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr"/>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t>HBM884.RCMT.655</t>
-        </is>
-      </c>
-      <c r="B192" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C192" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D192" t="inlineStr"/>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="inlineStr">
-        <is>
-          <t>HBM884.RCMT.655</t>
-        </is>
-      </c>
-      <c r="B193" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C193" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D193" t="inlineStr"/>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t>HBM886.MPTX.392</t>
-        </is>
-      </c>
-      <c r="B194" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr"/>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t>HBM886.MPTX.392</t>
-        </is>
-      </c>
-      <c r="B195" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C195" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D195" t="inlineStr"/>
-      <c r="E195" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="inlineStr">
-        <is>
-          <t>HBM886.MPTX.392</t>
-        </is>
-      </c>
-      <c r="B196" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C196" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t>HBM889.NSRP.924</t>
-        </is>
-      </c>
-      <c r="B197" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C197" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D197" t="inlineStr"/>
-      <c r="E197" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM889.NSRP.924</t>
-        </is>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t>HBM925.WHKF.243</t>
-        </is>
-      </c>
-      <c r="B198" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C198" t="inlineStr"/>
-      <c r="D198" t="inlineStr"/>
-      <c r="E198" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t>HBM925.WHKF.243</t>
-        </is>
-      </c>
-      <c r="B199" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C199" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D199" t="inlineStr"/>
-      <c r="E199" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t>HBM925.WHKF.243</t>
-        </is>
-      </c>
-      <c r="B200" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C200" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D200" t="inlineStr"/>
-      <c r="E200" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t>HBM928.HZCW.757</t>
-        </is>
-      </c>
-      <c r="B201" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C201" t="inlineStr"/>
-      <c r="D201" t="inlineStr"/>
-      <c r="E201" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t>HBM928.HZCW.757</t>
-        </is>
-      </c>
-      <c r="B202" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C202" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D202" t="inlineStr"/>
-      <c r="E202" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t>HBM928.HZCW.757</t>
-        </is>
-      </c>
-      <c r="B203" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C203" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D203" t="inlineStr"/>
-      <c r="E203" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t>HBM938.XFGN.695</t>
-        </is>
-      </c>
-      <c r="B204" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C204" t="inlineStr"/>
-      <c r="D204" t="inlineStr"/>
-      <c r="E204" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
-        </is>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t>HBM938.XFGN.695</t>
-        </is>
-      </c>
-      <c r="B205" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C205" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D205" t="inlineStr"/>
-      <c r="E205" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
-        </is>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t>HBM938.XFGN.695</t>
-        </is>
-      </c>
-      <c r="B206" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C206" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D206" t="inlineStr"/>
-      <c r="E206" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
-        </is>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="inlineStr">
-        <is>
-          <t>HBM946.ZHFC.683</t>
-        </is>
-      </c>
-      <c r="B207" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C207" t="inlineStr"/>
-      <c r="D207" t="inlineStr"/>
-      <c r="E207" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="inlineStr">
-        <is>
-          <t>HBM946.ZHFC.683</t>
-        </is>
-      </c>
-      <c r="B208" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C208" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D208" t="inlineStr"/>
-      <c r="E208" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="inlineStr">
-        <is>
-          <t>HBM946.ZHFC.683</t>
-        </is>
-      </c>
-      <c r="B209" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C209" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D209" t="inlineStr"/>
-      <c r="E209" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="inlineStr">
-        <is>
-          <t>HBM959.MGHL.844</t>
-        </is>
-      </c>
-      <c r="B210" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C210" t="inlineStr"/>
-      <c r="D210" t="inlineStr"/>
-      <c r="E210" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="inlineStr">
-        <is>
-          <t>HBM959.MGHL.844</t>
-        </is>
-      </c>
-      <c r="B211" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C211" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D211" t="inlineStr"/>
-      <c r="E211" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="inlineStr">
-        <is>
-          <t>HBM959.MGHL.844</t>
-        </is>
-      </c>
-      <c r="B212" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C212" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D212" t="inlineStr"/>
-      <c r="E212" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="inlineStr">
-        <is>
-          <t>HBM962.PZXB.965</t>
-        </is>
-      </c>
-      <c r="B213" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C213" t="inlineStr"/>
-      <c r="D213" t="inlineStr"/>
-      <c r="E213" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
-        </is>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="inlineStr">
-        <is>
-          <t>HBM962.PZXB.965</t>
-        </is>
-      </c>
-      <c r="B214" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C214" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D214" t="inlineStr"/>
-      <c r="E214" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
-        </is>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="inlineStr">
-        <is>
-          <t>HBM962.PZXB.965</t>
-        </is>
-      </c>
-      <c r="B215" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C215" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D215" t="inlineStr"/>
-      <c r="E215" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
-        </is>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="inlineStr">
-        <is>
-          <t>HBM963.DBXF.369</t>
-        </is>
-      </c>
-      <c r="B216" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C216" t="inlineStr"/>
-      <c r="D216" t="inlineStr"/>
-      <c r="E216" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="inlineStr">
-        <is>
-          <t>HBM963.DBXF.369</t>
-        </is>
-      </c>
-      <c r="B217" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C217" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D217" t="inlineStr"/>
-      <c r="E217" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="inlineStr">
-        <is>
-          <t>HBM963.DBXF.369</t>
-        </is>
-      </c>
-      <c r="B218" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C218" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D218" t="inlineStr"/>
-      <c r="E218" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="inlineStr">
-        <is>
-          <t>HBM966.RXFK.673</t>
-        </is>
-      </c>
-      <c r="B219" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C219" t="inlineStr"/>
-      <c r="D219" t="inlineStr"/>
-      <c r="E219" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="inlineStr">
-        <is>
-          <t>HBM966.RXFK.673</t>
-        </is>
-      </c>
-      <c r="B220" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C220" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D220" t="inlineStr"/>
-      <c r="E220" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="inlineStr">
-        <is>
-          <t>HBM966.RXFK.673</t>
-        </is>
-      </c>
-      <c r="B221" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C221" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D221" t="inlineStr"/>
-      <c r="E221" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="inlineStr">
-        <is>
-          <t>HBM975.BJRS.622</t>
-        </is>
-      </c>
-      <c r="B222" t="inlineStr">
-        <is>
-          <t>ion_mobility</t>
-        </is>
-      </c>
-      <c r="C222" t="inlineStr"/>
-      <c r="D222" t="inlineStr"/>
-      <c r="E222" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
-        </is>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="inlineStr">
-        <is>
-          <t>HBM975.BJRS.622</t>
-        </is>
-      </c>
-      <c r="B223" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C223" t="inlineStr">
-        <is>
-          <t>Sprayed matrix</t>
-        </is>
-      </c>
-      <c r="D223" t="inlineStr"/>
-      <c r="E223" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
-        </is>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t>HBM975.BJRS.622</t>
-        </is>
-      </c>
-      <c r="B224" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C224" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D224" t="inlineStr"/>
-      <c r="E224" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
-        </is>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t>HBM983.DBTL.373</t>
-        </is>
-      </c>
-      <c r="B225" t="inlineStr">
-        <is>
-          <t>matrix_deposition_method</t>
-        </is>
-      </c>
-      <c r="C225" t="inlineStr">
-        <is>
-          <t>Sprayed</t>
-        </is>
-      </c>
-      <c r="D225" t="inlineStr"/>
-      <c r="E225" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM983.DBTL.373</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E225"/>
-  <dataValidations count="3">
-    <dataValidation sqref="D2 D5 D8 D12 D15 D18 D22 D27 D30 D33 D36 D39 D42 D46 D49 D54 D57 D60 D63 D66 D69 D72 D75 D78 D82 D85 D89 D92 D95 D98 D103 D106 D109 D114 D118 D123 D128 D131 D134 D137 D141 D144 D147 D150 D153 D156 D159 D162 D165 D168 D174 D177 D180 D184 D187 D191 D194 D198 D201 D204 D207 D210 D213 D216 D219 D222" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$A$1:$A$6</formula1>
+  <autoFilter ref="A1:E159"/>
+  <dataValidations count="2">
+    <dataValidation sqref="D2 D4 D6 D8 D9 D11 D13 D15 D16 D18 D19 D20 D22 D24 D26 D28 D30 D32 D33 D35 D37 D38 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D58 D60 D62 D63 D65 D67 D69 D71 D72 D73 D75 D77 D79 D80 D81 D83 D84 D86 D87 D88 D90 D91 D92 D94 D96 D98 D100 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D122 D123 D124 D126 D128 D130 D131 D133 D135 D136 D138 D140 D141 D143 D145 D147 D149 D151 D153 D155 D157 D159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation sqref="D3 D6 D9 D11 D13 D16 D19 D21 D23 D25 D26 D28 D31 D34 D37 D40 D43 D45 D47 D50 D52 D53 D55 D58 D61 D64 D67 D70 D73 D76 D79 D81 D83 D86 D88 D90 D93 D96 D99 D101 D102 D104 D107 D110 D112 D113 D115 D117 D119 D121 D122 D124 D126 D127 D129 D132 D135 D138 D140 D142 D145 D148 D151 D154 D157 D160 D163 D166 D169 D171 D172 D173 D175 D178 D181 D183 D185 D188 D190 D192 D195 D197 D199 D202 D205 D208 D211 D214 D217 D220 D223 D225" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$5</formula1>
-    </dataValidation>
-    <dataValidation sqref="D4 D7 D10 D14 D17 D20 D24 D29 D32 D35 D38 D41 D44 D48 D51 D56 D59 D62 D65 D68 D71 D74 D77 D80 D84 D87 D91 D94 D97 D100 D105 D108 D111 D116 D120 D125 D130 D133 D136 D139 D143 D146 D149 D152 D155 D158 D161 D164 D167 D170 D176 D179 D182 D186 D189 D193 D196 D200 D203 D206 D209 D212 D215 D218 D221 D224" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
+    <dataValidation sqref="D3 D5 D7 D10 D12 D14 D17 D21 D23 D25 D27 D29 D31 D34 D36 D40 D42 D44 D46 D48 D50 D52 D54 D56 D59 D61 D64 D66 D68 D70 D74 D76 D78 D82 D85 D89 D93 D95 D97 D99 D102 D104 D106 D108 D110 D112 D114 D116 D118 D120 D125 D127 D129 D132 D134 D137 D139 D142 D144 D146 D148 D150 D152 D154 D156 D158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -12366,10 +11067,10 @@
   <autoFilter ref="A1:D381"/>
   <dataValidations count="2">
     <dataValidation sqref="C3 C6 C9 C16 C19 C22 C25 C32 C35 C42 C49 C52 C55 C58 C61 C64 C67 C74 C77 C80 C87 C94 C97 C100 C103 C106 C109 C112 C115 C118 C121 C128 C131 C134 C141 C144 C147 C150 C153 C160 C167 C170 C173 C176 C183 C190 C193 C200 C203 C210 C217 C220 C227 C234 C237 C240 C243 C246 C253 C256 C259 C262 C265 C268 C271 C274 C277 C280 C283 C290 C297 C304 C307 C310 C313 C320 C323 C326 C333 C336 C339 C346 C349 C352 C355 C358 C361 C364 C367 C370 C373 C380" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$D$1:$D$5</formula1>
+      <formula1>_validation_data!$C$1:$C$5</formula1>
     </dataValidation>
     <dataValidation sqref="C15 C31 C41 C48 C73 C86 C93 C127 C140 C159 C166 C182 C189 C199 C209 C216 C226 C233 C252 C289 C296 C303 C319 C332 C345 C379" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$3</formula1>
+      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/metadata/maldi/todo/Vanderbilt TMC (MALDI).xlsx
+++ b/metadata/maldi/todo/Vanderbilt TMC (MALDI).xlsx
@@ -13,7 +13,7 @@
     <sheet name="Invalid Input Pattern" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$159</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Non-Standard Value'!$A$1:$E$67</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Missing Required Value'!$A$1:$D$381</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Invalid Input Pattern'!$A$1:$F$119</definedName>
   </definedNames>
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -431,15 +431,10 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Negative ion mode</t>
+          <t>MS1</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
-        <is>
-          <t>MS1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
         <is>
           <t>hour</t>
         </is>
@@ -448,15 +443,10 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Positive ion mode</t>
+          <t>MS3</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
-        <is>
-          <t>MS3</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
         <is>
           <t>month</t>
         </is>
@@ -465,29 +455,24 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Negative and positive ion mode</t>
+          <t>MS2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>MS2</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
           <t>year</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="C4" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>day</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="C5" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>minute</t>
         </is>
@@ -504,7 +489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E159"/>
+  <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -547,12 +532,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -565,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>HBM229.MHGL.765</t>
+          <t>HBM245.BVDK.888</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -581,37 +566,37 @@
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM229.MHGL.765</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>HBM245.BVDK.888</t>
+          <t>HBM252.SRFF.799</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>HBM245.BVDK.888</t>
+          <t>HBM254.BWKF.959</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -627,37 +612,37 @@
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM245.BVDK.888</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HBM252.SRFF.799</t>
+          <t>HBM265.RKZN.565</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HBM252.SRFF.799</t>
+          <t>HBM279.RHQH.884</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -673,60 +658,60 @@
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM252.SRFF.799</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>HBM253.WVWH.754</t>
+          <t>HBM286.ZZNV.536</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Negative Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM253.WVWH.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>HBM254.BWKF.959</t>
+          <t>HBM337.XRWN.985</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>HBM254.BWKF.959</t>
+          <t>HBM348.NCLT.522</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -742,37 +727,37 @@
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM254.BWKF.959</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>HBM265.RKZN.565</t>
+          <t>HBM349.DTWT.383</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>HBM265.RKZN.565</t>
+          <t>HBM377.MFPF.328</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -788,37 +773,37 @@
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM265.RKZN.565</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>HBM279.RHQH.884</t>
+          <t>HBM393.LXBW.274</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>HBM279.RHQH.884</t>
+          <t>HBM393.RNFV.949</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -834,60 +819,60 @@
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM279.RHQH.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>HBM286.FJBP.622</t>
+          <t>HBM437.BGCD.226</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Positive Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.FJBP.622</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>HBM286.ZZNV.536</t>
+          <t>HBM437.JJKP.885</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>HBM286.ZZNV.536</t>
+          <t>HBM447.SQFP.455</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -903,83 +888,83 @@
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM286.ZZNV.536</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>HBM295.NGXZ.259</t>
+          <t>HBM453.RTXK.849</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Positive Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM295.NGXZ.259</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>HBM297.VSWF.562</t>
+          <t>HBM459.PHNF.976</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Negative Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM297.VSWF.562</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HBM337.XRWN.985</t>
+          <t>HBM472.NWBK.884</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HBM337.XRWN.985</t>
+          <t>HBM477.FNGG.257</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -995,37 +980,37 @@
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM337.XRWN.985</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HBM348.NCLT.522</t>
+          <t>HBM479.CXQD.522</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HBM348.NCLT.522</t>
+          <t>HBM488.HRWV.754</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1041,37 +1026,37 @@
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM348.NCLT.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HBM349.DTWT.383</t>
+          <t>HBM493.VRQM.643</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HBM349.DTWT.383</t>
+          <t>HBM494.CRGT.577</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1087,37 +1072,37 @@
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM349.DTWT.383</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>HBM377.MFPF.328</t>
+          <t>HBM533.FRHN.665</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>HBM377.MFPF.328</t>
+          <t>HBM543.RWZD.568</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1133,37 +1118,37 @@
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM377.MFPF.328</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HBM393.LXBW.274</t>
+          <t>HBM544.VSBJ.293</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>HBM393.LXBW.274</t>
+          <t>HBM545.ZDPS.746</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1179,37 +1164,37 @@
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.LXBW.274</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>HBM393.RNFV.949</t>
+          <t>HBM554.PGRJ.942</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>HBM393.RNFV.949</t>
+          <t>HBM556.CGCS.879</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1225,60 +1210,60 @@
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM393.RNFV.949</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>HBM394.SCHF.437</t>
+          <t>HBM568.VXSK.299</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Negative Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM394.SCHF.437</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>HBM437.BGCD.226</t>
+          <t>HBM573.JRSG.822</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>HBM437.BGCD.226</t>
+          <t>HBM578.WFKM.657</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1294,37 +1279,37 @@
       <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.BGCD.226</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>HBM437.JJKP.885</t>
+          <t>HBM632.SGXL.444</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>HBM437.JJKP.885</t>
+          <t>HBM644.HLRW.739</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1340,83 +1325,83 @@
       <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.JJKP.885</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>HBM437.KLJN.636</t>
+          <t>HBM662.MPBS.458</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Negative Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM437.KLJN.636</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>HBM446.GCXM.753</t>
+          <t>HBM747.PXSM.373</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Positive Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM446.GCXM.753</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>HBM447.SQFP.455</t>
+          <t>HBM749.MMKH.463</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>HBM447.SQFP.455</t>
+          <t>HBM758.SQVJ.597</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1432,37 +1417,37 @@
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM447.SQFP.455</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>HBM453.RTXK.849</t>
+          <t>HBM759.QJTL.573</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>HBM453.RTXK.849</t>
+          <t>HBM773.MNRH.264</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1478,37 +1463,37 @@
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM453.RTXK.849</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>HBM459.PHNF.976</t>
+          <t>HBM773.XBNC.394</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>HBM459.PHNF.976</t>
+          <t>HBM777.STQB.672</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1524,37 +1509,37 @@
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM459.PHNF.976</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>HBM472.NWBK.884</t>
+          <t>HBM782.SCDT.743</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>HBM472.NWBK.884</t>
+          <t>HBM784.HQQK.452</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1570,37 +1555,37 @@
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM472.NWBK.884</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>HBM477.FNGG.257</t>
+          <t>HBM787.DXFR.498</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>HBM477.FNGG.257</t>
+          <t>HBM793.CTLW.723</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1616,37 +1601,37 @@
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM477.FNGG.257</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>HBM479.CXQD.522</t>
+          <t>HBM794.JRXQ.455</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>HBM479.CXQD.522</t>
+          <t>HBM799.DZFZ.778</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -1662,37 +1647,37 @@
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM479.CXQD.522</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>HBM488.HRWV.754</t>
+          <t>HBM826.XDBN.955</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>HBM488.HRWV.754</t>
+          <t>HBM856.CDPK.464</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1708,37 +1693,37 @@
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM488.HRWV.754</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>HBM493.VRQM.643</t>
+          <t>HBM856.FWBK.447</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>HBM493.VRQM.643</t>
+          <t>HBM856.RFNW.734</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -1754,37 +1739,37 @@
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM493.VRQM.643</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>HBM494.CRGT.577</t>
+          <t>HBM862.DKNM.597</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>HBM494.CRGT.577</t>
+          <t>HBM869.RKXX.583</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1800,60 +1785,60 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM494.CRGT.577</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>HBM525.DLPN.575</t>
+          <t>HBM884.RCMT.655</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Positive Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM525.DLPN.575</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>HBM533.FRHN.665</t>
+          <t>HBM886.MPTX.392</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>HBM533.FRHN.665</t>
+          <t>HBM925.WHKF.243</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -1869,37 +1854,37 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM533.FRHN.665</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>HBM543.RWZD.568</t>
+          <t>HBM928.HZCW.757</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>positive ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>HBM543.RWZD.568</t>
+          <t>HBM938.XFGN.695</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -1915,60 +1900,60 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM543.RWZD.568</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>HBM544.SCBX.327</t>
+          <t>HBM946.ZHFC.683</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Positive Ion Mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.SCBX.327</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>HBM544.VSBJ.293</t>
+          <t>HBM959.MGHL.844</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>HBM544.VSBJ.293</t>
+          <t>HBM962.PZXB.965</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -1984,37 +1969,37 @@
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM544.VSBJ.293</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>HBM545.ZDPS.746</t>
+          <t>HBM963.DBXF.369</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>HBM545.ZDPS.746</t>
+          <t>HBM966.RXFK.673</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2030,2157 +2015,38 @@
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM545.ZDPS.746</t>
+          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>HBM554.PGRJ.942</t>
+          <t>HBM975.BJRS.622</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>mass_analysis_polarity</t>
+          <t>ms_scan_mode</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>negative ion mode</t>
+          <t>MS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>HBM554.PGRJ.942</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM554.PGRJ.942</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>HBM556.CGCS.879</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>HBM556.CGCS.879</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.CGCS.879</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>HBM556.VXGQ.987</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM556.VXGQ.987</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>HBM565.CBJS.354</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM565.CBJS.354</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>HBM568.VXSK.299</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>HBM568.VXSK.299</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM568.VXSK.299</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>HBM573.JRSG.822</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>HBM573.JRSG.822</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM573.JRSG.822</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>HBM578.WFKM.657</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>HBM578.WFKM.657</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM578.WFKM.657</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>HBM584.QJGL.379</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM584.QJGL.379</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>HBM594.SMLK.545</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM594.SMLK.545</t>
-        </is>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>HBM632.SGXL.444</t>
-        </is>
-      </c>
-      <c r="B81" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
-        </is>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>HBM632.SGXL.444</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM632.SGXL.444</t>
-        </is>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>HBM639.BNFL.487</t>
-        </is>
-      </c>
-      <c r="B83" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM639.BNFL.487</t>
-        </is>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>HBM644.HLRW.739</t>
-        </is>
-      </c>
-      <c r="B84" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>HBM644.HLRW.739</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM644.HLRW.739</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>HBM645.ZQSN.258</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM645.ZQSN.258</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>HBM652.VGTN.936</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM652.VGTN.936</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>HBM662.MPBS.458</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>HBM662.MPBS.458</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM662.MPBS.458</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>HBM738.KFNZ.872</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM738.KFNZ.872</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>HBM739.JKQC.464</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM739.JKQC.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>HBM747.PXSM.373</t>
-        </is>
-      </c>
-      <c r="B92" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>HBM747.PXSM.373</t>
-        </is>
-      </c>
-      <c r="B93" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM747.PXSM.373</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>HBM749.MMKH.463</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>HBM749.MMKH.463</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM749.MMKH.463</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>HBM758.SQVJ.597</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>HBM758.SQVJ.597</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM758.SQVJ.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>HBM759.QJTL.573</t>
-        </is>
-      </c>
-      <c r="B98" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>HBM759.QJTL.573</t>
-        </is>
-      </c>
-      <c r="B99" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM759.QJTL.573</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>HBM768.DPRS.958</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM768.DPRS.958</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>HBM773.MNRH.264</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>HBM773.MNRH.264</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.MNRH.264</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>HBM773.XBNC.394</t>
-        </is>
-      </c>
-      <c r="B103" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C103" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>HBM773.XBNC.394</t>
-        </is>
-      </c>
-      <c r="B104" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM773.XBNC.394</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>HBM777.STQB.672</t>
-        </is>
-      </c>
-      <c r="B105" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>HBM777.STQB.672</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM777.STQB.672</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>HBM782.SCDT.743</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>HBM782.SCDT.743</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM782.SCDT.743</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>HBM784.HQQK.452</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>HBM784.HQQK.452</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM784.HQQK.452</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>HBM787.DXFR.498</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>HBM787.DXFR.498</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM787.DXFR.498</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>HBM793.CTLW.723</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>HBM793.CTLW.723</t>
-        </is>
-      </c>
-      <c r="B114" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM793.CTLW.723</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>HBM794.JRXQ.455</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C115" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>HBM794.JRXQ.455</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM794.JRXQ.455</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>HBM799.DZFZ.778</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>HBM799.DZFZ.778</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM799.DZFZ.778</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>HBM826.XDBN.955</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>HBM826.XDBN.955</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM826.XDBN.955</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>HBM832.RVND.293</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM832.RVND.293</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>HBM846.HKTX.428</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM846.HKTX.428</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>HBM853.XDCQ.953</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM853.XDCQ.953</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>HBM856.CDPK.464</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>HBM856.CDPK.464</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.CDPK.464</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>HBM856.FWBK.447</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>HBM856.FWBK.447</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.FWBK.447</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>HBM856.RFNW.734</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>HBM856.RFNW.734</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM856.RFNW.734</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>HBM857.CTKH.498</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>Negative Ion Mode</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM857.CTKH.498</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>HBM862.DKNM.597</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>HBM862.DKNM.597</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM862.DKNM.597</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>HBM869.RKXX.583</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>HBM869.RKXX.583</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM869.RKXX.583</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>HBM877.RCLN.985</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM877.RCLN.985</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>HBM884.RCMT.655</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>HBM884.RCMT.655</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM884.RCMT.655</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>HBM886.MPTX.392</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>HBM886.MPTX.392</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM886.MPTX.392</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>HBM889.NSRP.924</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM889.NSRP.924</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>HBM925.WHKF.243</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>HBM925.WHKF.243</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM925.WHKF.243</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>HBM928.HZCW.757</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>HBM928.HZCW.757</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM928.HZCW.757</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>HBM938.XFGN.695</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>HBM938.XFGN.695</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM938.XFGN.695</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>HBM946.ZHFC.683</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>HBM946.ZHFC.683</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM946.ZHFC.683</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>HBM959.MGHL.844</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>HBM959.MGHL.844</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM959.MGHL.844</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>HBM962.PZXB.965</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>HBM962.PZXB.965</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM962.PZXB.965</t>
-        </is>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>HBM963.DBXF.369</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>HBM963.DBXF.369</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM963.DBXF.369</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>HBM966.RXFK.673</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>positive ion mode</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>HBM966.RXFK.673</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM966.RXFK.673</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>HBM975.BJRS.622</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>negative ion mode</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
-      <c r="E157" t="inlineStr">
-        <is>
           <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
         </is>
       </c>
     </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>HBM975.BJRS.622</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ms_scan_mode</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>MS</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM975.BJRS.622</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>HBM983.DBTL.373</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>mass_analysis_polarity</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>Positive Ion Mode</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>https://portal.hubmapconsortium.org/browse/HBM983.DBTL.373</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:E159"/>
-  <dataValidations count="2">
-    <dataValidation sqref="D2 D4 D6 D8 D9 D11 D13 D15 D16 D18 D19 D20 D22 D24 D26 D28 D30 D32 D33 D35 D37 D38 D39 D41 D43 D45 D47 D49 D51 D53 D55 D57 D58 D60 D62 D63 D65 D67 D69 D71 D72 D73 D75 D77 D79 D80 D81 D83 D84 D86 D87 D88 D90 D91 D92 D94 D96 D98 D100 D101 D103 D105 D107 D109 D111 D113 D115 D117 D119 D121 D122 D123 D124 D126 D128 D130 D131 D133 D135 D136 D138 D140 D141 D143 D145 D147 D149 D151 D153 D155 D157 D159" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
+  <autoFilter ref="A1:E67"/>
+  <dataValidations count="1">
+    <dataValidation sqref="D2 D3 D4 D5 D6 D7 D8 D9 D10 D11 D12 D13 D14 D15 D16 D17 D18 D19 D20 D21 D22 D23 D24 D25 D26 D27 D28 D29 D30 D31 D32 D33 D34 D35 D36 D37 D38 D39 D40 D41 D42 D43 D44 D45 D46 D47 D48 D49 D50 D51 D52 D53 D54 D55 D56 D57 D58 D59 D60 D61 D62 D63 D64 D65 D66 D67" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
       <formula1>_validation_data!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation sqref="D3 D5 D7 D10 D12 D14 D17 D21 D23 D25 D27 D29 D31 D34 D36 D40 D42 D44 D46 D48 D50 D52 D54 D56 D59 D61 D64 D66 D68 D70 D74 D76 D78 D82 D85 D89 D93 D95 D97 D99 D102 D104 D106 D108 D110 D112 D114 D116 D118 D120 D125 D127 D129 D132 D134 D137 D139 D142 D144 D146 D148 D150 D152 D154 D156 D158" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11067,10 +8933,10 @@
   <autoFilter ref="A1:D381"/>
   <dataValidations count="2">
     <dataValidation sqref="C3 C6 C9 C16 C19 C22 C25 C32 C35 C42 C49 C52 C55 C58 C61 C64 C67 C74 C77 C80 C87 C94 C97 C100 C103 C106 C109 C112 C115 C118 C121 C128 C131 C134 C141 C144 C147 C150 C153 C160 C167 C170 C173 C176 C183 C190 C193 C200 C203 C210 C217 C220 C227 C234 C237 C240 C243 C246 C253 C256 C259 C262 C265 C268 C271 C274 C277 C280 C283 C290 C297 C304 C307 C310 C313 C320 C323 C326 C333 C336 C339 C346 C349 C352 C355 C358 C361 C364 C367 C370 C373 C380" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$C$1:$C$5</formula1>
+      <formula1>_validation_data!$B$1:$B$5</formula1>
     </dataValidation>
     <dataValidation sqref="C15 C31 C41 C48 C73 C86 C93 C127 C140 C159 C166 C182 C189 C199 C209 C216 C226 C233 C252 C289 C296 C303 C319 C332 C345 C379" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" type="list">
-      <formula1>_validation_data!$B$1:$B$3</formula1>
+      <formula1>_validation_data!$A$1:$A$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
